--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_test.xlsx
@@ -53,103 +53,103 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Total time online (min)</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -751,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -780,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -815,25 +815,25 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -879,22 +879,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,10 +1065,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,13 +1097,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1193,10 +1193,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1225,10 +1225,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1939,16 +1939,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1971,22 +1971,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1998,12 +1998,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2158,18 +2158,18 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2190,21 +2190,21 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2222,18 +2222,18 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2254,12 +2254,12 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2274,30 +2274,30 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2323,16 +2323,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2370,16 +2370,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2414,12 +2414,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2466,16 +2466,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2498,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2786,27 +2786,27 @@
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2830,12 +2830,12 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
